--- a/parameters/NA/ammonia/pipeline_parameters.xlsx
+++ b/parameters/NA/ammonia/pipeline_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/hert5576_ox_ac_uk/Documents/Documents/_CCG/Multi-geography/GEOH2/ETHCollab/GeoNH3_Runs/Results_v9_2024-08-27/Parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samiyhanaqvi/Desktop/SHIELD/updating-main/Geo-X/parameters/NA/ammonia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{0F17CB98-0437-854B-8C4B-CA3D4C7F5EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B5EAD5-083E-4277-89F9-E2E238BECE69}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B17424-E50A-E248-8770-6073D6E05FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{94028C1A-34CC-4B53-868B-8FD234C28ADF}"/>
+    <workbookView xWindow="9980" yWindow="740" windowWidth="19420" windowHeight="17360" xr2:uid="{94028C1A-34CC-4B53-868B-8FD234C28ADF}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,39 @@
   </si>
   <si>
     <r>
-      <t>Capex y-intercept (</t>
+      <t>Capex y-intercept (euros</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/t/yr/100km)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Capex flow coefficient (euros</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/t^2/yr^2/100km)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Capex y-intercept (euros</t>
     </r>
     <r>
       <rPr>
@@ -80,12 +112,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>€/t/yr/100km)</t>
+      <t>/t/yr/100km)</t>
     </r>
   </si>
   <si>
     <r>
-      <t>Capex flow coefficient (</t>
+      <t>Capex flow coefficient (euros</t>
     </r>
     <r>
       <rPr>
@@ -96,39 +128,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>€/t^2/yr^2/100km)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Capex y-intercept (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>€/t/yr/100km)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Capex flow coefficient (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>€/t^2/yr^2/100km)</t>
+      <t>/t^2/yr^2/100km)</t>
     </r>
   </si>
 </sst>
@@ -513,18 +513,18 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -532,7 +532,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -540,7 +540,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -548,7 +548,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -556,7 +556,7 @@
         <v>6.1381900000000004E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -564,7 +564,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -572,7 +572,7 @@
         <v>8262000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -580,7 +580,7 @@
         <v>1775000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -598,30 +598,30 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>36.432234259545197</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>-4.8280193823940094E-7</v>
@@ -637,30 +637,30 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>57.588615193195757</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>-3.0416522109082265E-6</v>
@@ -676,30 +676,30 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>79.478855072970205</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>-1.5353101636012954E-5</v>
